--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1023.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1023.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.102788464043465</v>
+        <v>1.372438311576843</v>
       </c>
       <c r="B1">
-        <v>3.405599784617806</v>
+        <v>1.74567437171936</v>
       </c>
       <c r="C1">
-        <v>3.419595902451245</v>
+        <v>15</v>
       </c>
       <c r="D1">
-        <v>2.313058507681541</v>
+        <v>1.874284625053406</v>
       </c>
       <c r="E1">
-        <v>1.135621388451884</v>
+        <v>0.7593633532524109</v>
       </c>
     </row>
   </sheetData>
